--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/incorrect_predictions_42.xlsx
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Drag a box around or tap a target on screen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Drag a box around or tap a target on</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/42/incorrect_predictions_42.xlsx
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on</t>
+          <t>When exceeding nnn,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
